--- a/Frontend-medicare_booking_app/src/assets/template/AccountManage.xlsx
+++ b/Frontend-medicare_booking_app/src/assets/template/AccountManage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lap Trinh\VS_Code\.vscode\Application\Medicare_booking_app\Frontend-medicare_booking_app\src\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6738D6-9CCF-4655-B9CD-2767982A8FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB64E349-5657-434E-BAD1-9FE53A08A7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2FF5286D-3A92-47D5-824A-895CD34D3EF0}"/>
   </bookViews>
@@ -21,15 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -38,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="80">
   <si>
     <t>password</t>
   </si>
@@ -91,23 +82,215 @@
     <t>levantruong@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">PGS, TS. Lê Văn Trường là một bác sĩ tim mạch quân y, hiện đang giữ chức vụ Trưởng khoa Chẩn đoán hình ảnh và Can thiệp Tim mạch, đồng thời là Viện trưởng Viện Tim mạch của Bệnh viện Trung ương Quân đội 108. Ông đã tốt nghiệp Học viện Quân y và có nhiều đóng góp trong lĩnh vực chẩn đoán và điều trị các bệnh tim mạch phức tạp. </t>
+  </si>
+  <si>
+    <t>PGS</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>TS.BS. Bùi Hải Bình là  chuyên gia trong lĩnh vực nội soi khớp gối trong chẩn đoán và điều trị các bệnh lý khớp gối như thoái hóa, viêm một khớp gối, u sụn màng hoạt dịch khớp, viêm màng hoạt dịch lông nốt sắc tố, lao khớp</t>
+  </si>
+  <si>
+    <t>buihaibinh@gmail.com</t>
+  </si>
+  <si>
+    <t>Bùi Hải Bình</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>phambinhnguyen@gmail.com</t>
+  </si>
+  <si>
+    <t>Phạm Bình Nguyện</t>
+  </si>
+  <si>
+    <t>Tiến sĩ - Bác sĩ Phạm Bình Nguyện là một trong những chuyên gia đầu ngành trong lĩnh vực Tiêu hóa tại Hà Nội. Hiện tại, bác sĩ đang đảm nhận vị trí Bác sĩ điều trị tại khoa Tiêu hóa của bệnh viện Bạch Mai</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PGS. TS. NGUYỄN HÀ THANH có nhiều nghiêncứu như là :nghiên cứu điều trị bệnh lơ xê mi kinh dòng bạch cầu hạt bằng thuốc ức chế hoạt tính tyrosine kinase imatinib; nghiên cứu và ứng dụng một số phương pháp mới điều trị bệnh máu ác tính như điều trị nhắm đích, gạn tách tế bào điều trị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>nguyenhathanh@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyễn Hà Thanh</t>
+  </si>
+  <si>
+    <t>Thạc sĩ, Bác sĩ Đặng Thị Như Quỳnh là bác sĩ nhiều năm kinh nghiệm về Phẫu thuật Phaco, Phuẫt thuật Tật khúc xạ, Phẫu thuật Dịch kính võng mạc, Phẫu thuật tạo hình vùng Mắt ,khám và điều trị các bệnh lý về mắt</t>
+  </si>
+  <si>
+    <t>Đặng Thị Như Quỳnh</t>
+  </si>
+  <si>
+    <t>dangthinhuquynh@gmail.com</t>
+  </si>
+  <si>
+    <t>Tiến sĩ, Bác sĩ Trần Nguyên Ánh Tú là một chuyên gia trong lĩnh vực thẩm mỹ da liễu ở TP. Hồ Chí Minh. Hiện tại, bác sĩ đảm nhiệm vai trò Trưởng Khoa Thẩm mỹ Da tại Bệnh viện Da Liễu TP.HCM.Với hơn 15 năm kinh nghiệm trong ngành, bác sĩ Ánh Tú đã đóng góp quan trọng trong việc điều trị và chăm sóc da cho hàng ngàn bệnh nhân, đồng thời tham gia tích cực vào công tác giảng dạy và nghiên cứu khoa học</t>
+  </si>
+  <si>
+    <t>Trần Nguyễn Ánh Tú</t>
+  </si>
+  <si>
+    <t>trannguyenanhtu@gmail.com</t>
+  </si>
+  <si>
+    <t>PGS.TS. Nguyễn Tuấn Tùng - Phó Giám đốc Bệnh viện Bạch Mai, là một trong những chuyên gia đầu ngành trong lĩnh vực Huyết học - Truyền máu, đồng thời là nhà quản lý y tế có tầm nhìn chiến lược, đóng vai trò quan trọng trong tiến trình hiện đại hóa và phát triển bền vững của Bệnh viện Bạch Mai - bệnh viện hạng đặc biệt quốc gia</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuấn Tùng</t>
+  </si>
+  <si>
+    <t>nguyentuantung@gmail.com</t>
+  </si>
+  <si>
+    <t>Thạc sĩ, Bác sĩ Phạm Văn Đếm là chuyên gia giàu kinh nghiệm trong lĩnh vực Nội khoa và Nhi khoa, hiện đang công tác tại Bệnh viện Bạch Mai. Với hơn 20 năm hành nghề, ông đã đóng góp quan trọng trong việc chăm sóc và điều trị cho nhiều bệnh nhân, đặc biệt là trẻ em. Ngoài ra, ông còn điều hành Phòng khám Nội khoa - Nhi khoa tư nhân tại phường Mễ Trì, quận Nam Từ Liêm, Hà Nội, cung cấp dịch vụ y tế chất lượng cao cho cộng đồng. ​</t>
+  </si>
+  <si>
+    <t>Phạm Văn Đếm</t>
+  </si>
+  <si>
+    <t>phamvandem@gmail.com</t>
+  </si>
+  <si>
+    <t>Tiến sĩ, Bác sĩ Đào Bùi Quý Quyền hiện đang là Trưởng khoa Nội tiết – Bệnh viện Chợ Rẫy. Phòng khám của Bác sĩ Quyền chuyên điều trị các bệnh: Sỏi (thận, niệu quản), niệu đạo, bàng quang, tật bẩm sinh đường tiết niệu, bướu (tuyến tiền liệt, đường tiết niệu), nhiễm trùng tiểu, són tiểu ở phụ nữ, viêm cầu thận, hội chứng thận hư, lupus đỏ biến chứng thận, bệnh thận do đái tháo đường, bệnh thận do tăng huyết áp, bệnh ống thận, mô kẽ, suy thận, ệnh lý hậu môn trực tràng, tuyến tiền liệt, rối loạn tiểu tiện…</t>
+  </si>
+  <si>
+    <t>Đào Bùi Quý Quyền</t>
+  </si>
+  <si>
+    <t>daobuiquyquyen@gmail.com</t>
+  </si>
+  <si>
+    <t>Phó Giáo sư, Tiến sĩ, Bác sĩ Lê Văn Thành là chuyên gia hàng đầu trong lĩnh vực Ngoại Tiêu hóa – Gan mật – Tụy, hiện đang công tác tại Khoa Ngoại Tiêu hóa – Gan mật – Tiết niệu, Bệnh viện Đa khoa Quốc tế Vinmec Times City, đồng thời đảm nhiệm vai trò Phó Tổng Giám đốc Chuyên môn Khối Ngoại, Hệ thống Y tế Vinmec. Với nhiều năm kinh nghiệm trong chuyên ngành Ngoại Tiêu hóa, đặc biệt là phẫu thuật gan, mật, tụy và ghép gan, PGS.TS.BS Lê Văn Thành đã trực tiếp thực hiện, chỉ đạo nhiều ca phẫu thuật phức tạp, mang lại cơ hội sống cho hàng nghìn bệnh nhân mắc bệnh lý nặng về gan mật.</t>
+  </si>
+  <si>
+    <t>Lê Văn Thành</t>
+  </si>
+  <si>
+    <t>levanthanh@gmail.com</t>
+  </si>
+  <si>
+    <t>Phó Giáo sư, Tiến sĩ, Bác sĩ Trần Quang Vinh là một trong những tên tuổi hàng đầu trong lĩnh vực phẫu thuật thần kinh tại Việt Nam. Với hơn 30 năm kinh nghiệm dày dặn, ông được biết đến như một chuyên gia tận tâm, luôn hết mình vì sức khỏe của bệnh nhân. Bác sĩ Vinh hiện đang công tác tại Bệnh viện Chợ Rẫy, một trong những trung tâm y tế lớn nhất và uy tín nhất tại miền Nam Việt</t>
+  </si>
+  <si>
+    <t>Trần Quang Vinh</t>
+  </si>
+  <si>
+    <t>tranquangvinh@gmail.com</t>
+  </si>
+  <si>
+    <t>PGS.TS Ninh Thị Ứng là người có mục tiêu nghề nghiệp rất rõ ràng là trở thành bác sĩ Nhi khoa. Bà lên kế hoạch thực hiện mục tiêu này từ sớm và theo học trường Đại học Nhi Peterburg tại Nga. Trong quá trình học tập bà không ngừng nỗ lực làm chủ chuyên ngành mình theo đuổi và luôn hoàn thành tốt các mục tiêu của mình</t>
+  </si>
+  <si>
+    <t>Ninh Thị Ứng</t>
+  </si>
+  <si>
+    <t>ninhthiung@gmail.com</t>
+  </si>
+  <si>
+    <t>ThS.BS Vũ Thị Phương Thảo là chuyên gia thẩm mỹ da với hơn 15 năm kinh nghiệm trong lĩnh vực trẻ hóa làn da, điều trị nám và sẹo rỗ. Bác sĩ từng tham gia nhiều khóa đào tạo quốc tế chuyên sâu về công nghệ laser hiện đại, mang đến phác đồ điều trị cá nhân hóa, an toàn và hiệu quả cao. Với sự tận tâm, chu đáo trong từng ca điều trị, bác sĩ Thảo luôn được bệnh nhân tin tưởng và yêu mến</t>
+  </si>
+  <si>
+    <t>Vũ Thị Phương Thảo</t>
+  </si>
+  <si>
+    <t>vuthiphuongthao@gmail.com</t>
+  </si>
+  <si>
+    <t>PGS. TS. BS. Nguyễn Đình Khoa là một trong những chuyên gia nổi tiếng của lĩnh vực cơ xương khớp với trình độ chuyên môn sâu rộng kết hợp cùng nhiều năm kinh nghiệm khám và điều trị bệnh thực tế. Bác sĩ Nguyễn Đình Khoa hiện nay được bổ nhiệm vào vị trí Trưởng khoa Nội cơ xương khớp tại Bệnh viện Chợ Rẫy</t>
+  </si>
+  <si>
+    <t>Nguyễn Đình Khoa</t>
+  </si>
+  <si>
+    <t>nguyendinhkhoa@gmail.com</t>
+  </si>
+  <si>
     <t>Lê Văn Trường</t>
   </si>
   <si>
-    <t xml:space="preserve">PGS, TS. Lê Văn Trường là một bác sĩ tim mạch quân y, hiện đang giữ chức vụ Trưởng khoa Chẩn đoán hình ảnh và Can thiệp Tim mạch, đồng thời là Viện trưởng Viện Tim mạch của Bệnh viện Trung ương Quân đội 108. Ông đã tốt nghiệp Học viện Quân y và có nhiều đóng góp trong lĩnh vực chẩn đoán và điều trị các bệnh tim mạch phức tạp. </t>
-  </si>
-  <si>
-    <t>PGS</t>
-  </si>
-  <si>
-    <t>Female</t>
+    <t>avatarUrl</t>
+  </si>
+  <si>
+    <t>avatarPublicId</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dwevfv0is/image/upload/v1760692018/medicare/cbvlkbt6blsleaycrdni.jpg</t>
+  </si>
+  <si>
+    <t>medicare</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dwevfv0is/image/upload/v1761796874/B%C3%B9i_H%E1%BA%A3i_B%C3%ACnh_afpxnc.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dwevfv0is/image/upload/v1761796875/ts-bs-ph%E1%BA%A1m_b%C3%ACnh_nguy%E1%BB%87n_ubp4mr.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dwevfv0is/image/upload/v1761796875/PGS-Nguyen-Ha-Thanh_t34vlk.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dwevfv0is/image/upload/v1761796873/Ths.BS_Dang-Thi-Nhu-Quynh_jaerg5.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dwevfv0is/image/upload/v1761796874/Tr%C3%A2nNguyenAnhTu_tddziw.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dwevfv0is/image/upload/v1761796875/NguyenTuanTung_gshzs0.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dwevfv0is/image/upload/v1761796874/PhamVanDem_feohfc.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dwevfv0is/image/upload/v1761796874/tsbs-dao-bui-quy-quyen_e5w2ve.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dwevfv0is/image/upload/v1761796873/levanthanh_v3fgcs.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dwevfv0is/image/upload/v1761796874/tranquangvinh_hrdfzq.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dwevfv0is/image/upload/v1761796875/NinhThiUng_gi049i.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dwevfv0is/image/upload/v1761796876/VuThiPhuongThao_t29drb.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dwevfv0is/image/upload/v1761796873/nguyendinhkhoa_mcvscq.webp</t>
+  </si>
+  <si>
+    <t>ThS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +304,90 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri "/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri "/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF031107"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF282828"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F2937"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0A0A0A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -145,9 +412,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -467,7 +750,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -475,13 +758,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACC52EF-5708-4EBC-B867-BD698B4E09FA}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
@@ -489,13 +772,15 @@
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
     <col min="9" max="9" width="22.5703125" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -533,10 +818,16 @@
         <v>13</v>
       </c>
       <c r="M1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -547,7 +838,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -559,7 +850,7 @@
         <v>1234556789</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2">
         <v>30</v>
@@ -568,23 +859,665 @@
         <v>500000</v>
       </c>
       <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>1234556789</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>500000</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>1234556789</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>500000</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>1234556789</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5">
+        <v>30</v>
+      </c>
+      <c r="J5">
+        <v>500000</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>1234556789</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>500000</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1234556789</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7">
+        <v>15</v>
+      </c>
+      <c r="J7">
+        <v>500000</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>1234556789</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8">
+        <v>25</v>
+      </c>
+      <c r="J8">
+        <v>500000</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>1234556789</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
+      <c r="J9">
+        <v>500000</v>
+      </c>
+      <c r="K9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>1234556789</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>500000</v>
+      </c>
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N10" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>1234556789</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11">
+        <v>35</v>
+      </c>
+      <c r="J11">
+        <v>500000</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>1234556789</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12">
+        <v>30</v>
+      </c>
+      <c r="J12">
+        <v>500000</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>1234556789</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13">
+        <v>40</v>
+      </c>
+      <c r="J13">
+        <v>500000</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N13" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1234556789</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14">
+        <v>15</v>
+      </c>
+      <c r="J14">
+        <v>500000</v>
+      </c>
+      <c r="K14" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" t="s">
+        <v>64</v>
+      </c>
+      <c r="O14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>1234556789</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15">
+        <v>35</v>
+      </c>
+      <c r="J15">
+        <v>500000</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N15" t="s">
+        <v>64</v>
+      </c>
+      <c r="O15" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{777C5FD0-19D4-4A59-A6E6-A7056FBFD9F2}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{A99B689C-D2AE-44C9-A8DC-D3888AAB300E}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{9E64C643-5B76-4245-AB8E-83E710C372F4}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{65239F82-9A67-44ED-9190-1F45B1C0C7F5}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{42BD5D96-D7FE-49DC-B8A4-AE93A12118C9}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{300E53EF-D4F9-42A8-BB41-1C267D34CCF7}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{6F4A8577-24C0-4C65-87E2-903F12485F31}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{61737668-1A5F-4570-ADB6-0EED77F44116}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{701B0591-CA9D-4584-9878-E94C958C42B8}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{A5A9C6B3-55F1-494F-975A-AA6C8F54C656}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{9B394C34-F2DE-4CF6-A571-D15B549F1ED4}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{562052A2-0F90-4516-92FB-8F5BFFB11704}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{EE522332-6B31-4039-B22C-92D1D47A6DBB}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{4F341AA6-7878-41EA-ACE0-C78D7CAE19BD}"/>
+    <hyperlink ref="M2" r:id="rId15" xr:uid="{D5BD821C-4BAC-4819-B8F2-AFC88F2AEC00}"/>
+    <hyperlink ref="M3" r:id="rId16" xr:uid="{B048A9BE-339F-4FF1-94A6-4CA1A5BCE7ED}"/>
+    <hyperlink ref="M4" r:id="rId17" xr:uid="{C03C788F-0F7C-4B0A-9693-D423B9CBBE1A}"/>
+    <hyperlink ref="M5" r:id="rId18" xr:uid="{1C16017C-EB55-4E31-8978-76E0A7E54B91}"/>
+    <hyperlink ref="M6" r:id="rId19" xr:uid="{56C4CEBE-0518-437E-A71D-F447908C0B54}"/>
+    <hyperlink ref="M7" r:id="rId20" xr:uid="{BF1082F6-661D-42BE-9525-7AB022D18241}"/>
+    <hyperlink ref="M8" r:id="rId21" xr:uid="{453170D4-3D22-4AB7-B5D3-3A9F7444122B}"/>
+    <hyperlink ref="M9" r:id="rId22" xr:uid="{98A81F9F-21EF-45A7-952A-768AFF27ADDA}"/>
+    <hyperlink ref="M10" r:id="rId23" xr:uid="{E9E2805E-53A7-4315-9471-0DA21D97E67C}"/>
+    <hyperlink ref="M11" r:id="rId24" xr:uid="{515B24B6-82E2-47C4-9977-0139E897AFDD}"/>
+    <hyperlink ref="M12" r:id="rId25" xr:uid="{28182931-6FE2-4EEF-88DD-17BECCE42A7B}"/>
+    <hyperlink ref="M13" r:id="rId26" xr:uid="{848878C5-45B2-4315-85BE-D53026C0D6B7}"/>
+    <hyperlink ref="M14" r:id="rId27" xr:uid="{EEF26CE7-F18B-48AA-A4CD-F8DA523F5369}"/>
+    <hyperlink ref="M15" r:id="rId28" xr:uid="{84D050DE-33B6-4A8E-92F2-648608931D40}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>